--- a/media/eb_order/eb_order_hide_formula(request).xlsx
+++ b/media/eb_order/eb_order_hide_formula(request).xlsx
@@ -70,10 +70,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>{$PUBLISH_DATE$}</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>作業報告書に基づく稼動実費精算とする。</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -237,6 +233,22 @@
   </si>
   <si>
     <t>〒{$SUBCONTRACTOR_POST_CODE$}</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>平成      年    月    日</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイセイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ニチ</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -971,59 +983,59 @@
     </row>
     <row r="2" spans="1:9" ht="27" customHeight="1">
       <c r="I2" s="39" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="24" customHeight="1">
       <c r="D3" s="46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" s="46"/>
       <c r="F3" s="46"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5"/>
       <c r="F6" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1">
       <c r="F7" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G7" s="36"/>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1">
       <c r="F8" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G8" s="36"/>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1">
       <c r="F9" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" s="36"/>
     </row>
     <row r="10" spans="1:9" ht="19.5">
       <c r="F10" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10" s="36"/>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1">
       <c r="F11" s="37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G11" s="36"/>
     </row>
@@ -1033,7 +1045,7 @@
     <row r="13" spans="1:9" ht="18" customHeight="1" thickBot="1">
       <c r="A13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1">
@@ -1051,11 +1063,11 @@
     </row>
     <row r="18" spans="1:9" ht="27" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -1090,7 +1102,7 @@
       <c r="D20" s="17"/>
       <c r="E20" s="18"/>
       <c r="F20" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="40" t="s">
@@ -1119,11 +1131,11 @@
     </row>
     <row r="22" spans="1:9" ht="27" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
@@ -1156,11 +1168,11 @@
     </row>
     <row r="25" spans="1:9" ht="21" customHeight="1">
       <c r="A25" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
@@ -1173,7 +1185,7 @@
       <c r="A26" s="11"/>
       <c r="B26" s="12"/>
       <c r="C26" s="42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
@@ -1186,7 +1198,7 @@
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
       <c r="C27" s="42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
@@ -1199,7 +1211,7 @@
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
@@ -1210,11 +1222,11 @@
     </row>
     <row r="29" spans="1:9" ht="27" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D29" s="26"/>
       <c r="E29" s="26"/>
@@ -1242,7 +1254,7 @@
       <c r="A31" s="9"/>
       <c r="B31" s="10"/>
       <c r="C31" s="41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D31" s="28"/>
       <c r="E31" s="28"/>
@@ -1255,7 +1267,7 @@
       <c r="A32" s="11"/>
       <c r="B32" s="12"/>
       <c r="C32" s="44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D32" s="30"/>
       <c r="E32" s="30"/>
@@ -1268,7 +1280,7 @@
       <c r="A33" s="11"/>
       <c r="B33" s="12"/>
       <c r="C33" s="44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D33" s="30"/>
       <c r="E33" s="30"/>
@@ -1279,11 +1291,11 @@
     </row>
     <row r="34" spans="1:9" ht="18.75" customHeight="1">
       <c r="A34" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D34" s="30"/>
       <c r="E34" s="30"/>
@@ -1296,7 +1308,7 @@
       <c r="A35" s="11"/>
       <c r="B35" s="12"/>
       <c r="C35" s="44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D35" s="30"/>
       <c r="E35" s="30"/>
@@ -1309,7 +1321,7 @@
       <c r="A36" s="11"/>
       <c r="B36" s="12"/>
       <c r="C36" s="44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D36" s="30"/>
       <c r="E36" s="30"/>
@@ -1322,7 +1334,7 @@
       <c r="A37" s="11"/>
       <c r="B37" s="12"/>
       <c r="C37" s="44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D37" s="30"/>
       <c r="E37" s="30"/>
@@ -1335,7 +1347,7 @@
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D38" s="32"/>
       <c r="E38" s="32"/>
